--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -27,46 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>ast</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>cel</t>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>bñ</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>cn</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>md</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Total:</t>
   </si>
@@ -74,20 +35,122 @@
     <t>Total=</t>
   </si>
   <si>
-    <t>Per</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>svn</t>
+    <t>Gastos Diarios</t>
+  </si>
+  <si>
+    <t>Pago Televicion</t>
+  </si>
+  <si>
+    <t>Pago Celular</t>
+  </si>
+  <si>
+    <t>Tenis</t>
+  </si>
+  <si>
+    <t>Prestamos</t>
+  </si>
+  <si>
+    <t>Remo bn</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Prestamo Cesar</t>
+  </si>
+  <si>
+    <t>Pago Ticante</t>
+  </si>
+  <si>
+    <t>pago mama</t>
+  </si>
+  <si>
+    <t>Presupuesto Fin de semana</t>
+  </si>
+  <si>
+    <t>Gastos del mes Casa</t>
+  </si>
+  <si>
+    <t>Medicamentos</t>
+  </si>
+  <si>
+    <t>Articulos Limpieza</t>
+  </si>
+  <si>
+    <t>Pago subvercion</t>
+  </si>
+  <si>
+    <t>30 de marzo 2015</t>
+  </si>
+  <si>
+    <t>31 de marzo 2015</t>
+  </si>
+  <si>
+    <t>1 de abril 2015</t>
+  </si>
+  <si>
+    <t>pago prestamo</t>
+  </si>
+  <si>
+    <t>Accesorios cel</t>
+  </si>
+  <si>
+    <t>Despensa</t>
+  </si>
+  <si>
+    <t>Gastos de la casa</t>
+  </si>
+  <si>
+    <t>Gastos Cena</t>
+  </si>
+  <si>
+    <t>Dasayuno</t>
+  </si>
+  <si>
+    <t>Pasajes</t>
+  </si>
+  <si>
+    <t>Comida</t>
+  </si>
+  <si>
+    <t>Pago Prestamo</t>
+  </si>
+  <si>
+    <t>Prestamo Mama</t>
+  </si>
+  <si>
+    <t>gastos casa</t>
+  </si>
+  <si>
+    <t>Restante</t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>Juegos</t>
+  </si>
+  <si>
+    <t>Desayuno</t>
+  </si>
+  <si>
+    <t>Comidas</t>
+  </si>
+  <si>
+    <t>Tienda</t>
+  </si>
+  <si>
+    <t>Pago Comida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +158,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -112,12 +187,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,168 +575,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H14"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f>(F14)</f>
+        <v>9420</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <f>(H14)</f>
-        <v>9420</v>
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
       </c>
       <c r="F4">
-        <v>31</v>
-      </c>
-      <c r="G4">
-        <v>150</v>
-      </c>
-      <c r="H4">
-        <f>F4*G4</f>
+        <f>D4*E4</f>
         <v>4650</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4">
+        <v>60</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4000</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="H5">
-        <f>F4*G5</f>
+      <c r="F5">
+        <f>D4*E5</f>
         <v>620</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4">
+        <v>200</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3500</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4">
+        <v>250</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="4">
+        <v>150</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1000</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2200</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="4">
+        <v>500</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="4">
+        <v>200</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>500</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="4">
+        <v>168</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>700</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
+        <v>900</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="4">
+        <v>50</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="4">
+        <v>500</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>500</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="H11">
+      <c r="F11">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4">
+        <v>500</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B4:B13)</f>
-        <v>23320</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <f>SUM(H4:H11)</f>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F4:F11)</f>
         <v>9420</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B3:B13)</f>
+        <v>24520</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6">
+        <f>SUM(J4:J11)</f>
+        <v>5700</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6">
+        <f>SUM(L4:L14)</f>
+        <v>2593</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6">
+        <f>SUM(N4:N18)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <f>B1-B18</f>
+        <v>980</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Total:</t>
   </si>
@@ -35,78 +35,18 @@
     <t>Total=</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>Gastos Diarios</t>
   </si>
   <si>
-    <t>Pago Televicion</t>
-  </si>
-  <si>
-    <t>Pago Celular</t>
-  </si>
-  <si>
-    <t>Tenis</t>
-  </si>
-  <si>
-    <t>Prestamos</t>
-  </si>
-  <si>
-    <t>Remo bn</t>
-  </si>
-  <si>
-    <t>Cena</t>
-  </si>
-  <si>
     <t>Prestamo Cesar</t>
   </si>
   <si>
-    <t>Pago Ticante</t>
-  </si>
-  <si>
-    <t>pago mama</t>
-  </si>
-  <si>
-    <t>Presupuesto Fin de semana</t>
-  </si>
-  <si>
-    <t>Gastos del mes Casa</t>
-  </si>
-  <si>
-    <t>Medicamentos</t>
-  </si>
-  <si>
-    <t>Articulos Limpieza</t>
-  </si>
-  <si>
-    <t>Pago subvercion</t>
-  </si>
-  <si>
-    <t>30 de marzo 2015</t>
-  </si>
-  <si>
     <t>31 de marzo 2015</t>
   </si>
   <si>
     <t>1 de abril 2015</t>
   </si>
   <si>
-    <t>pago prestamo</t>
-  </si>
-  <si>
-    <t>Accesorios cel</t>
-  </si>
-  <si>
-    <t>Despensa</t>
-  </si>
-  <si>
-    <t>Gastos de la casa</t>
-  </si>
-  <si>
-    <t>Gastos Cena</t>
-  </si>
-  <si>
     <t>Dasayuno</t>
   </si>
   <si>
@@ -131,9 +71,6 @@
     <t>Pago</t>
   </si>
   <si>
-    <t>Juegos</t>
-  </si>
-  <si>
     <t>Desayuno</t>
   </si>
   <si>
@@ -144,6 +81,39 @@
   </si>
   <si>
     <t>Pago Comida</t>
+  </si>
+  <si>
+    <t>30 de junio 2016</t>
+  </si>
+  <si>
+    <t>Targeta Banamex</t>
+  </si>
+  <si>
+    <t>Pago Zuma</t>
+  </si>
+  <si>
+    <t>Liverpool Premium</t>
+  </si>
+  <si>
+    <t>Liverpool Dilisa</t>
+  </si>
+  <si>
+    <t>Pago totalPlay</t>
+  </si>
+  <si>
+    <t>Gastos Casa</t>
+  </si>
+  <si>
+    <t>Baño</t>
+  </si>
+  <si>
+    <t>Pago Cel</t>
+  </si>
+  <si>
+    <t>Banco Azteca</t>
+  </si>
+  <si>
+    <t>Pago Liverpool</t>
   </si>
 </sst>
 </file>
@@ -578,7 +548,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>25500</v>
@@ -604,11 +574,11 @@
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f>(F14)</f>
-        <v>9420</v>
+        <f>F4</f>
+        <v>7750</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="7" t="s">
@@ -616,47 +586,47 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N3" s="8"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>11500</v>
       </c>
       <c r="D4">
         <v>31</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F4">
         <f>D4*E4</f>
-        <v>4650</v>
+        <v>7750</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J4" s="4">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L4" s="4">
         <v>60</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N4" s="4">
         <v>60</v>
@@ -664,33 +634,29 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>4000</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <f>D4*E5</f>
-        <v>620</v>
+        <v>5000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>374</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="4">
-        <v>200</v>
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="L5" s="4">
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N5" s="4">
         <v>15</v>
@@ -698,32 +664,26 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>3500</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J6" s="4">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L6" s="4">
         <v>150</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N6" s="4">
         <v>35</v>
@@ -731,32 +691,22 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3000</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="L7" s="4">
         <v>1000</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N7" s="4">
         <v>30</v>
@@ -764,26 +714,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>2200</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="4">
-        <v>500</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L8" s="4">
         <v>200</v>
@@ -793,26 +733,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>500</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
+        <v>1250</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4">
-        <v>500</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L9" s="4">
         <v>168</v>
@@ -822,26 +752,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>900</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="4">
-        <v>50</v>
-      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L10" s="4">
         <v>500</v>
@@ -851,22 +771,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>150</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L11" s="4">
         <v>500</v>
@@ -876,10 +790,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
@@ -891,10 +805,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>374</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
@@ -910,7 +824,7 @@
       </c>
       <c r="F14">
         <f>SUM(F4:F11)</f>
-        <v>9420</v>
+        <v>8124</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
@@ -953,7 +867,7 @@
       </c>
       <c r="B18">
         <f>SUM(B3:B13)</f>
-        <v>24520</v>
+        <v>35324</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
@@ -968,7 +882,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="6">
         <f>SUM(J4:J11)</f>
-        <v>5700</v>
+        <v>214</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6">
@@ -983,11 +897,11 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <f>B1-B18</f>
-        <v>980</v>
+        <v>-9824</v>
       </c>
     </row>
   </sheetData>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Total:</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Pago Liverpool</t>
+  </si>
+  <si>
+    <t>Spotti</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>svn</t>
   </si>
 </sst>
 </file>
@@ -548,7 +557,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +587,7 @@
       </c>
       <c r="B3">
         <f>F4</f>
-        <v>7750</v>
+        <v>9300</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="7" t="s">
@@ -606,11 +615,11 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <f>D4*E4</f>
-        <v>7750</v>
+        <v>9300</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="2" t="s">
@@ -694,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>3500</v>
+        <v>5120</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
@@ -793,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
@@ -819,12 +828,18 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>99</v>
+      </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14">
         <f>SUM(F4:F11)</f>
-        <v>8124</v>
+        <v>9674</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
@@ -835,6 +850,12 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>99</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="4"/>
@@ -844,6 +865,12 @@
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>180</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="4"/>
@@ -866,8 +893,8 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <f>SUM(B3:B13)</f>
-        <v>35324</v>
+        <f>SUM(B3:B16)</f>
+        <v>39022</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
@@ -901,7 +928,7 @@
       </c>
       <c r="B20">
         <f>B1-B18</f>
-        <v>-9824</v>
+        <v>-13522</v>
       </c>
     </row>
   </sheetData>
